--- a/biology/Zoologie/Cassiduloida/Cassiduloida.xlsx
+++ b/biology/Zoologie/Cassiduloida/Cassiduloida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Cassiduloida regroupe plusieurs familles d'oursins dits « irréguliers », appartenant à l'embranchement des échinodermes.
 </t>
@@ -511,11 +523,13 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cassiduloida sont des oursins irréguliers, au corps légèrement ovoïde ; leur bouche est avancée vers un côté, dépourvue de lanterne d'Aristote, leur face aborale est convexe et leur face orale plane.
-Chaque plaque ambulacraire porte un podion unique, et on note la présence de phyllodes sur la face orale (zones où les podia sont modifiés en tentacules nutritifs). Ces oursins n'ont pas de lanterne d'Aristote[1].
-Cet ordre semble être apparu au Jurassique inférieur (Toarcien)[1]. Ils connurent un grand succès évolutif au Mésozoïque, mais il n'en subsiste plus qu'une poignée d'espèces.
+Chaque plaque ambulacraire porte un podion unique, et on note la présence de phyllodes sur la face orale (zones où les podia sont modifiés en tentacules nutritifs). Ces oursins n'ont pas de lanterne d'Aristote.
+Cet ordre semble être apparu au Jurassique inférieur (Toarcien). Ils connurent un grand succès évolutif au Mésozoïque, mais il n'en subsiste plus qu'une poignée d'espèces.
 </t>
         </is>
       </c>
@@ -544,15 +558,17 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (25 octobre 2013)[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (25 octobre 2013) : 
 Super-famille Cassidulina (Philip, 1963b)
 famille Cassidulidae (L. Agassiz and Desor, 1847) -- 3 genres actuels
 Super-famille Neolampadina (Philip, 1963b)
 famille Neolampadidae (Lambert, 1918a) -- 4 genres actuels
 famille Pliolampadidae (Kier, 1962) †
-Selon ITIS      (14 septembre 2013)[3] :
+Selon ITIS      (14 septembre 2013) :
 famille Cassidulidae (L. Agassiz &amp; Desor, 1847)
 famille Echinolampadidae (Gray, 1851)
 famille Pliolampadidae (Kier, 1962) †
